--- a/public/dikson_products_list4.xlsx
+++ b/public/dikson_products_list4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>PHOTO</t>
   </si>
@@ -31,6 +31,21 @@
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n2</t>
   </si>
   <si>
+    <t>https://muster-dikson.com/it/prodotto/urtinol</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0088_Emulsiondor---10vol---980ml.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0095_Classic-Technical-System---DiKSOBLONDE---Deco.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
     <t>700/750ml</t>
   </si>
   <si>
@@ -42,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +76,12 @@
       <sz val="11"/>
       <color rgb="FF1155cc"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -144,7 +165,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -506,20 +527,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -725,7 +758,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -751,7 +784,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
